--- a/Sis2/resources/SistemasInformacionII.xlsx
+++ b/Sis2/resources/SistemasInformacionII.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202898\Google Drive\UNILEON\curso 17_18\Sistemas de Información II\Practica 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="8784" windowWidth="19200" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8784"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
-    <sheet name="Hoja2" r:id="rId2" sheetId="4"/>
-    <sheet name="Hoja3" r:id="rId3" sheetId="5"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="505">
   <si>
     <t>Nombre</t>
   </si>
@@ -1541,55 +1541,12 @@
   </si>
   <si>
     <t>P2418823C</t>
-  </si>
-  <si>
-    <t>Y1337652D</t>
-  </si>
-  <si>
-    <t>Y0806930N</t>
-  </si>
-  <si>
-    <t>09741995T</t>
-  </si>
-  <si>
-    <t>09779552K</t>
-  </si>
-  <si>
-    <t>24304263W</t>
-  </si>
-  <si>
-    <t>24571671N</t>
-  </si>
-  <si>
-    <t>09548827D</t>
-  </si>
-  <si>
-    <t>X8996448K</t>
-  </si>
-  <si>
-    <t>09548295Y</t>
-  </si>
-  <si>
-    <t>09611087P</t>
-  </si>
-  <si>
-    <t>09548486J</t>
-  </si>
-  <si>
-    <t>09741138V</t>
-  </si>
-  <si>
-    <t>09548443Q</t>
-  </si>
-  <si>
-    <t>09749147E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1617,23 +1574,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1659,10 +1616,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1681,10 +1638,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1719,7 +1676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,7 +1728,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1876,7 +1833,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1885,13 +1842,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1901,7 +1858,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1910,7 +1867,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1919,7 +1876,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1929,12 +1886,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1965,7 +1922,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1984,7 +1941,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1996,26 +1953,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0" zoomScale="93" zoomScaleNormal="93">
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="6" width="28.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="5" width="7.5546875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" style="3"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.88671875" style="6" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2348,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -2426,7 +2383,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -2531,7 +2488,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -2776,7 +2733,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>506</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -2808,7 +2765,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>506</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -2875,7 +2832,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -2945,7 +2902,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>508</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
         <v>226</v>
@@ -3336,7 +3293,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>509</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s">
         <v>390</v>
@@ -3552,7 +3509,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>510</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -3733,7 +3690,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -3765,7 +3722,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -3832,7 +3789,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
         <v>30</v>
@@ -4086,7 +4043,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>514</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -4159,7 +4116,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
@@ -4381,7 +4338,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
@@ -4422,7 +4379,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>515</v>
+        <v>344</v>
       </c>
       <c r="B68" t="s">
         <v>227</v>
@@ -4562,7 +4519,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -4775,7 +4732,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>516</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
         <v>176</v>
@@ -4983,7 +4940,6 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84"/>
       <c r="B84" t="s">
         <v>327</v>
       </c>
@@ -5344,7 +5300,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
@@ -5379,7 +5335,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>518</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
         <v>205</v>
@@ -5737,8 +5693,8 @@
   <sortState ref="A2:Q104">
     <sortCondition ref="B1"/>
   </sortState>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5748,8 +5704,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -5757,11 +5713,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6507,12 +6463,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6521,6 +6477,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>